--- a/data/questions.xlsx
+++ b/data/questions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Suffrage" sheetId="1" state="visible" r:id="rId3"/>
@@ -15,6 +15,8 @@
     <sheet name="Clouds" sheetId="5" state="visible" r:id="rId7"/>
     <sheet name="Ants" sheetId="6" state="visible" r:id="rId8"/>
     <sheet name="Waterclocks" sheetId="7" state="visible" r:id="rId9"/>
+    <sheet name="GatesT" sheetId="8" state="visible" r:id="rId10"/>
+    <sheet name="GatesS" sheetId="9" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="50">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -487,12 +489,12 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3515625" defaultRowHeight="19.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -925,7 +927,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3515625" defaultRowHeight="19.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1050,7 +1052,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3515625" defaultRowHeight="19.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1536,4 +1538,308 @@
     <oddFooter>&amp;C&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="168" zoomScaleNormal="168" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="28.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="42.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="95.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="55.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="82.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="68.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="42.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="95.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="42.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="95.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="168" zoomScaleNormal="168" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="28.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="82.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="68.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="42.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="68.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="42.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="95.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="42.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="95.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>